--- a/other_files/MSSC Events.xlsx
+++ b/other_files/MSSC Events.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,15 +9,17 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="MSSC Events" sheetId="2" r:id="rId2"/>
+    <sheet name="superclass" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="150">
   <si>
     <t>match_id</t>
   </si>
@@ -189,12 +191,300 @@
   </si>
   <si>
     <t>ISSF</t>
+  </si>
+  <si>
+    <t>MSSC</t>
+  </si>
+  <si>
+    <t>MAWC</t>
+  </si>
+  <si>
+    <t>N10</t>
+  </si>
+  <si>
+    <t>display_name</t>
+  </si>
+  <si>
+    <t>is_decimal</t>
+  </si>
+  <si>
+    <t>no_of_shots</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>A02</t>
+  </si>
+  <si>
+    <t>A01</t>
+  </si>
+  <si>
+    <t>A03</t>
+  </si>
+  <si>
+    <t>A04</t>
+  </si>
+  <si>
+    <t>N01</t>
+  </si>
+  <si>
+    <t>N02</t>
+  </si>
+  <si>
+    <t>N03</t>
+  </si>
+  <si>
+    <t>N04</t>
+  </si>
+  <si>
+    <t>50M Rifle 3 Position ISSF Men Senior</t>
+  </si>
+  <si>
+    <t>50M Rifle 3 Position ISSF Men Junior</t>
+  </si>
+  <si>
+    <t>50M Rifle Prone ISSF Men Senior</t>
+  </si>
+  <si>
+    <t>50M Rifle Prone ISSF Men Junior</t>
+  </si>
+  <si>
+    <t>50M Rifle 3 Position ISSF Women Senior</t>
+  </si>
+  <si>
+    <t>50M Rifle 3 Position ISSF Women Junior</t>
+  </si>
+  <si>
+    <t>50M Rifle Prone ISSF Women Senior</t>
+  </si>
+  <si>
+    <t>50M Rifle Prone ISSF Women Junior</t>
+  </si>
+  <si>
+    <t>10M Rifle ISSF Men Senior</t>
+  </si>
+  <si>
+    <t>10M Rifle ISSF Men Junior</t>
+  </si>
+  <si>
+    <t>10M Rifle ISSF Men Youth</t>
+  </si>
+  <si>
+    <t>10M Rifle ISSF Women Senior</t>
+  </si>
+  <si>
+    <t>10M Rifle ISSF Women Junior</t>
+  </si>
+  <si>
+    <t>10M Rifle ISSF Women Youth</t>
+  </si>
+  <si>
+    <t>50M Pistol ISSF Men Senior</t>
+  </si>
+  <si>
+    <t>50M Pistol ISSF Men Junior</t>
+  </si>
+  <si>
+    <t>25M Rapid Fire Pistol ISSF Men Senior</t>
+  </si>
+  <si>
+    <t>25M Rapid Fire Pistol ISSF Men Junior</t>
+  </si>
+  <si>
+    <t>25M Center Fire Pistol ISSF Men Senior</t>
+  </si>
+  <si>
+    <t>25M Center Fire Pistol ISSF Men Junior</t>
+  </si>
+  <si>
+    <t>25M Pistol ISSF Men Junior</t>
+  </si>
+  <si>
+    <t>25M Standard Pistol ISSF Men Senior</t>
+  </si>
+  <si>
+    <t>25M Standard Pistol ISSF Men Junior</t>
+  </si>
+  <si>
+    <t>10M Pistol ISSF Men Senior</t>
+  </si>
+  <si>
+    <t>10M Pistol ISSF Men Junior</t>
+  </si>
+  <si>
+    <t>10M Pistol ISSF Men Youth</t>
+  </si>
+  <si>
+    <t>25M Pistol ISSF Women Senior</t>
+  </si>
+  <si>
+    <t>25M Pistol ISSF Women Junior</t>
+  </si>
+  <si>
+    <t>10M Pistol ISSF Women Senior</t>
+  </si>
+  <si>
+    <t>10M Pistol ISSF Women Junior</t>
+  </si>
+  <si>
+    <t>10M Pistol ISSF Women Youth</t>
+  </si>
+  <si>
+    <t>10M Rifle NR Men Senior</t>
+  </si>
+  <si>
+    <t>10M Rifle NR Women Senior</t>
+  </si>
+  <si>
+    <t>10M Pistol NR Men Senior</t>
+  </si>
+  <si>
+    <t>10M Pistol NR Women Senior</t>
+  </si>
+  <si>
+    <t>10M OS Rifle NR Men Senior</t>
+  </si>
+  <si>
+    <t>S01</t>
+  </si>
+  <si>
+    <t>S03</t>
+  </si>
+  <si>
+    <t>S05</t>
+  </si>
+  <si>
+    <t>S07</t>
+  </si>
+  <si>
+    <t>S09</t>
+  </si>
+  <si>
+    <t>S12</t>
+  </si>
+  <si>
+    <t>S15</t>
+  </si>
+  <si>
+    <t>S17</t>
+  </si>
+  <si>
+    <t>S19</t>
+  </si>
+  <si>
+    <t>S11</t>
+  </si>
+  <si>
+    <t>S02</t>
+  </si>
+  <si>
+    <t>S04</t>
+  </si>
+  <si>
+    <t>S06</t>
+  </si>
+  <si>
+    <t>S08</t>
+  </si>
+  <si>
+    <t>S10</t>
+  </si>
+  <si>
+    <t>S13</t>
+  </si>
+  <si>
+    <t>S14</t>
+  </si>
+  <si>
+    <t>S16</t>
+  </si>
+  <si>
+    <t>S18</t>
+  </si>
+  <si>
+    <t>From Ezekiel</t>
+  </si>
+  <si>
+    <t>25M Standard Pistol NR Men</t>
+  </si>
+  <si>
+    <t>50M Pistol NR Men</t>
+  </si>
+  <si>
+    <t>From MAWC</t>
+  </si>
+  <si>
+    <t>10M OS Rifle NR Men/Women</t>
+  </si>
+  <si>
+    <t>10M Pistol NR Women</t>
+  </si>
+  <si>
+    <t>10M Pistol NR Men</t>
+  </si>
+  <si>
+    <t>10M Rifle NR Women</t>
+  </si>
+  <si>
+    <t>10M Rifle NR Men</t>
+  </si>
+  <si>
+    <t>From MSSC</t>
+  </si>
+  <si>
+    <t>10M Pistol ISSF Women</t>
+  </si>
+  <si>
+    <t>25M Pistol ISSF Women</t>
+  </si>
+  <si>
+    <t>10M Pistol ISSF Men</t>
+  </si>
+  <si>
+    <t>25M Standard Pistol ISSF Men</t>
+  </si>
+  <si>
+    <t>25M Center Fire Pistol ISSF Men</t>
+  </si>
+  <si>
+    <t>25M Rapid Fire Pistol ISSF Men</t>
+  </si>
+  <si>
+    <t>50M Pistol ISSF Men</t>
+  </si>
+  <si>
+    <t>10M Rifle ISSF Women</t>
+  </si>
+  <si>
+    <t>10M Rifle ISSF Men</t>
+  </si>
+  <si>
+    <t>50M Rifle Prone ISSF Women</t>
+  </si>
+  <si>
+    <t>50M Rifle 3 Position ISSF Women</t>
+  </si>
+  <si>
+    <t>50M Rifle Prone ISSF Men</t>
+  </si>
+  <si>
+    <t>50M Rifle 3 Position ISSF Men</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>super_event</t>
+  </si>
+  <si>
+    <t>competition_type</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -536,8 +826,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10:F32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1288,4 +1578,996 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D41"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.28515625" customWidth="1"/>
+    <col min="3" max="3" width="36.85546875" customWidth="1"/>
+    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D4" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D5" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
+        <v>73</v>
+      </c>
+      <c r="D6" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" t="s">
+        <v>74</v>
+      </c>
+      <c r="D7" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" t="s">
+        <v>75</v>
+      </c>
+      <c r="D8" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>54</v>
+      </c>
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" t="s">
+        <v>76</v>
+      </c>
+      <c r="D9" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>54</v>
+      </c>
+      <c r="B10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" t="s">
+        <v>77</v>
+      </c>
+      <c r="D10" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>54</v>
+      </c>
+      <c r="B11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" t="s">
+        <v>78</v>
+      </c>
+      <c r="D11" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" t="s">
+        <v>79</v>
+      </c>
+      <c r="D12" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>54</v>
+      </c>
+      <c r="B13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" t="s">
+        <v>80</v>
+      </c>
+      <c r="D13" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>54</v>
+      </c>
+      <c r="B14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" t="s">
+        <v>81</v>
+      </c>
+      <c r="D14" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>54</v>
+      </c>
+      <c r="B15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" t="s">
+        <v>82</v>
+      </c>
+      <c r="D15" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>54</v>
+      </c>
+      <c r="B16" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" t="s">
+        <v>83</v>
+      </c>
+      <c r="D16" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>54</v>
+      </c>
+      <c r="B17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" t="s">
+        <v>84</v>
+      </c>
+      <c r="D17" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>54</v>
+      </c>
+      <c r="B18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" t="s">
+        <v>85</v>
+      </c>
+      <c r="D18" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>54</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>86</v>
+      </c>
+      <c r="D19" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>54</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>87</v>
+      </c>
+      <c r="D20" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>54</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>88</v>
+      </c>
+      <c r="D21" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>54</v>
+      </c>
+      <c r="B22" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22" t="s">
+        <v>89</v>
+      </c>
+      <c r="D22" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>54</v>
+      </c>
+      <c r="B23" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23" t="s">
+        <v>90</v>
+      </c>
+      <c r="D23" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>54</v>
+      </c>
+      <c r="B24" t="s">
+        <v>29</v>
+      </c>
+      <c r="C24" t="s">
+        <v>91</v>
+      </c>
+      <c r="D24" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>54</v>
+      </c>
+      <c r="B25" t="s">
+        <v>30</v>
+      </c>
+      <c r="C25" t="s">
+        <v>92</v>
+      </c>
+      <c r="D25" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>54</v>
+      </c>
+      <c r="B26" t="s">
+        <v>31</v>
+      </c>
+      <c r="C26" t="s">
+        <v>93</v>
+      </c>
+      <c r="D26" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>54</v>
+      </c>
+      <c r="B27" t="s">
+        <v>32</v>
+      </c>
+      <c r="C27" t="s">
+        <v>94</v>
+      </c>
+      <c r="D27" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>54</v>
+      </c>
+      <c r="B28" t="s">
+        <v>33</v>
+      </c>
+      <c r="C28" t="s">
+        <v>95</v>
+      </c>
+      <c r="D28" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>54</v>
+      </c>
+      <c r="B29" t="s">
+        <v>34</v>
+      </c>
+      <c r="C29" t="s">
+        <v>96</v>
+      </c>
+      <c r="D29" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>54</v>
+      </c>
+      <c r="B30" t="s">
+        <v>35</v>
+      </c>
+      <c r="C30" t="s">
+        <v>97</v>
+      </c>
+      <c r="D30" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>54</v>
+      </c>
+      <c r="B31" t="s">
+        <v>36</v>
+      </c>
+      <c r="C31" t="s">
+        <v>98</v>
+      </c>
+      <c r="D31" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>54</v>
+      </c>
+      <c r="B32" t="s">
+        <v>37</v>
+      </c>
+      <c r="C32" t="s">
+        <v>99</v>
+      </c>
+      <c r="D32" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>55</v>
+      </c>
+      <c r="B33" t="s">
+        <v>62</v>
+      </c>
+      <c r="C33" t="s">
+        <v>77</v>
+      </c>
+      <c r="D33" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>55</v>
+      </c>
+      <c r="B34" t="s">
+        <v>61</v>
+      </c>
+      <c r="C34" t="s">
+        <v>80</v>
+      </c>
+      <c r="D34" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>55</v>
+      </c>
+      <c r="B35" t="s">
+        <v>63</v>
+      </c>
+      <c r="C35" t="s">
+        <v>92</v>
+      </c>
+      <c r="D35" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>55</v>
+      </c>
+      <c r="B36" t="s">
+        <v>64</v>
+      </c>
+      <c r="C36" t="s">
+        <v>97</v>
+      </c>
+      <c r="D36" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>55</v>
+      </c>
+      <c r="B37" t="s">
+        <v>65</v>
+      </c>
+      <c r="C37" t="s">
+        <v>100</v>
+      </c>
+      <c r="D37" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>55</v>
+      </c>
+      <c r="B38" t="s">
+        <v>66</v>
+      </c>
+      <c r="C38" t="s">
+        <v>101</v>
+      </c>
+      <c r="D38" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>55</v>
+      </c>
+      <c r="B39" t="s">
+        <v>67</v>
+      </c>
+      <c r="C39" t="s">
+        <v>102</v>
+      </c>
+      <c r="D39" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>55</v>
+      </c>
+      <c r="B40" t="s">
+        <v>68</v>
+      </c>
+      <c r="C40" t="s">
+        <v>103</v>
+      </c>
+      <c r="D40" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>55</v>
+      </c>
+      <c r="B41" t="s">
+        <v>56</v>
+      </c>
+      <c r="C41" t="s">
+        <v>104</v>
+      </c>
+      <c r="D41" t="s">
+        <v>113</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>1200</v>
+      </c>
+      <c r="E2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>145</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>60</v>
+      </c>
+      <c r="E3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>60</v>
+      </c>
+      <c r="E4" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>143</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>60</v>
+      </c>
+      <c r="E5" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>142</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>60</v>
+      </c>
+      <c r="E6" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>141</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>40</v>
+      </c>
+      <c r="E7" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>140</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>60</v>
+      </c>
+      <c r="E8" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>139</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>60</v>
+      </c>
+      <c r="E9" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>138</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>40</v>
+      </c>
+      <c r="E10" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>89</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>40</v>
+      </c>
+      <c r="E11" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>137</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>40</v>
+      </c>
+      <c r="E12" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>136</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>60</v>
+      </c>
+      <c r="E13" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>135</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>60</v>
+      </c>
+      <c r="E14" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>134</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>40</v>
+      </c>
+      <c r="E15" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>132</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>40</v>
+      </c>
+      <c r="E16" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>131</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>40</v>
+      </c>
+      <c r="E17" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>130</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>40</v>
+      </c>
+      <c r="E18" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>129</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>40</v>
+      </c>
+      <c r="E19" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>128</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>40</v>
+      </c>
+      <c r="E20" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>126</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>30</v>
+      </c>
+      <c r="E21" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>125</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>30</v>
+      </c>
+      <c r="E22" t="s">
+        <v>124</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
 </file>